--- a/TestData/Web_POS/Staging/Return/adhoc_return_test_data.xlsx
+++ b/TestData/Web_POS/Staging/Return/adhoc_return_test_data.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunal\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Staging\Return\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Staging\Return\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,19 +83,22 @@
     <t>discount_value</t>
   </si>
   <si>
+    <t>Price_Override</t>
+  </si>
+  <si>
     <t>user_mobile</t>
   </si>
   <si>
     <t>R_1</t>
   </si>
   <si>
-    <t>239060824Quj</t>
-  </si>
-  <si>
-    <t>Zwingautomation78@gmail.com</t>
-  </si>
-  <si>
-    <t>R_user1_p1</t>
+    <t>307260624P3E</t>
+  </si>
+  <si>
+    <t>zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p1 </t>
   </si>
   <si>
     <t>2000 : 1</t>
@@ -132,10 +134,10 @@
     <t>R_2</t>
   </si>
   <si>
-    <t>239060824VZq</t>
-  </si>
-  <si>
-    <t>R_user2_p2</t>
+    <t xml:space="preserve">307260624ut0 </t>
+  </si>
+  <si>
+    <t>userone_p2</t>
   </si>
   <si>
     <t>Alexa67 : 1</t>
@@ -166,20 +168,31 @@
   </si>
   <si>
     <r>
-      <t/>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+        <scheme val="none"/>
+      </rPr>
+      <t xml:space="preserve">8906118410781 : 1, </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
         <color rgb="FF000000"/>
         <sz val="10"/>
         <scheme val="none"/>
       </rPr>
-      <t>8906118410781 : 1, 8906118412556</t>
+      <t>8906118412556</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
         <sz val="10"/>
         <scheme val="none"/>
       </rPr>
@@ -188,6 +201,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <color rgb="FF000000"/>
         <sz val="10"/>
         <scheme val="none"/>
@@ -200,20 +214,31 @@
   </si>
   <si>
     <r>
-      <t/>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+        <scheme val="none"/>
+      </rPr>
+      <t xml:space="preserve">8906118410781 : 1, </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
         <color rgb="FF000000"/>
         <sz val="10"/>
         <scheme val="none"/>
       </rPr>
-      <t>8906118410781 : 1, 8906118412556</t>
+      <t>8906118412556</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
         <sz val="10"/>
         <scheme val="none"/>
       </rPr>
@@ -245,10 +270,10 @@
     <t>R_14</t>
   </si>
   <si>
-    <t>239060824pBw</t>
-  </si>
-  <si>
-    <t>R_user3_p10</t>
+    <t xml:space="preserve">307260624Wa9 </t>
+  </si>
+  <si>
+    <t>userone_p10</t>
   </si>
   <si>
     <t>R_15</t>
@@ -257,9 +282,6 @@
     <t>R_16</t>
   </si>
   <si>
-    <t xml:space="preserve">R_user1_p1 </t>
-  </si>
-  <si>
     <t>R_17</t>
   </si>
   <si>
@@ -330,6 +352,45 @@
   </si>
   <si>
     <t>R_34</t>
+  </si>
+  <si>
+    <t>R_35</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>737534800034 : 1</t>
+  </si>
+  <si>
+    <t>02-04-2024</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R_36</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>R_37</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R_38</t>
+  </si>
+  <si>
+    <t>R_39</t>
+  </si>
+  <si>
+    <t>307260624ut0</t>
   </si>
 </sst>
 </file>
@@ -339,94 +400,101 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right style="medium">
-        <color rgb="FF2B579A"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF2B579A"/>
-      </bottom>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -723,29 +791,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0" topLeftCell="H1">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A25">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42969" customWidth="1"/>
-    <col min="2" max="2" width="27.32031" customWidth="1"/>
-    <col min="3" max="3" width="60.34766" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="13.92969" customWidth="1"/>
-    <col min="7" max="7" width="14.45703" customWidth="1"/>
-    <col min="8" max="9" width="11.42969" customWidth="1"/>
-    <col min="10" max="10" width="36.42969" customWidth="1"/>
-    <col min="11" max="16" width="11.42969" customWidth="1"/>
-    <col min="17" max="17" width="16.77734" customWidth="1"/>
-    <col min="18" max="19" width="11.42969" customWidth="1"/>
-    <col min="20" max="20" width="24.82031" customWidth="1"/>
-    <col min="21" max="1025" width="11.42969" customWidth="1"/>
+    <col min="1" max="1" width="11.52"/>
+    <col min="2" max="2" width="15.09" customWidth="1"/>
+    <col min="3" max="3" width="37.4" customWidth="1"/>
+    <col min="4" max="4" width="16.17" customWidth="1"/>
+    <col min="5" max="5" width="14.35" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="17.71094" customWidth="1"/>
+    <col min="8" max="8" width="16.14063" customWidth="1"/>
+    <col min="9" max="9" width="14.28516" customWidth="1"/>
+    <col min="10" max="10" width="19.14063" customWidth="1"/>
+    <col min="11" max="11" width="16.85547" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="7.285156" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="9.285156" customWidth="1"/>
+    <col min="17" max="17" width="11.85547" customWidth="1"/>
+    <col min="18" max="18" width="11.71094" customWidth="1"/>
+    <col min="19" max="19" width="13.14063" customWidth="1"/>
+    <col min="20" max="20" width="15.85547" customWidth="1"/>
+    <col min="21" max="21" width="13.57031" customWidth="1"/>
+    <col min="22" max="22" width="18.85547" customWidth="1"/>
+    <col min="23" max="23" width="13.42578" customWidth="1"/>
+    <col min="24" max="1025" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,942 +887,993 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>123456</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L2" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>123456</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W3">
+        <v>8569742369</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L4" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W4">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>123456</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L5" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W5">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>123456</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
+      <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L6" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W6">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>123456</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L7" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W7">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="1">
         <v>123456</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L8" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3">
         <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W8">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>123456</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="10" ht="38.25">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" s="1">
         <v>123456</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L10" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="S10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5">
+        <v>36</v>
+      </c>
+      <c r="W10">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="1">
         <v>123456</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
+      <c r="G11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L11" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="S11" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W11">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>123456</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>27</v>
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L12" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W12">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F13" s="1">
         <v>123456</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>27</v>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L13" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W13">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
+        <v>123456</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>123456</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>27</v>
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L14" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="S14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5">
+        <v>36</v>
+      </c>
+      <c r="W14">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>123456</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F15" s="1">
         <v>123456</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
+      <c r="G15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L15" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R15">
         <v>3</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W15">
+        <v>9741235864</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="1">
         <v>123456</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
+      <c r="G16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L16" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W16">
+        <v>9741235864</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F17" s="1">
         <v>123456</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>27</v>
+      <c r="G17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L17" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
+        <v>36</v>
+      </c>
+      <c r="W17">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="1">
         <v>123456</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L18" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>62</v>
@@ -1752,67 +1881,73 @@
       <c r="U18" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" ht="14.25">
+      <c r="W18">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F19" s="1">
         <v>123456</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>27</v>
+      <c r="G19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L19" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="W19">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="20" ht="25.5">
@@ -1820,61 +1955,64 @@
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="1">
         <v>123456</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>27</v>
+      <c r="G20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L20" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="W20">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -1882,58 +2020,61 @@
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="1">
         <v>123456</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>27</v>
+      <c r="G21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L21" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>70</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="W21">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="22" ht="14.25">
@@ -1941,52 +2082,55 @@
         <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F22" s="1">
         <v>123456</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>27</v>
+      <c r="G22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L22" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S22" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W22">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -1994,52 +2138,55 @@
         <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F23" s="1">
         <v>123456</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>27</v>
+      <c r="G23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L23" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S23" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W23">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -2047,52 +2194,55 @@
         <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F24" s="1">
         <v>123456</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>27</v>
+      <c r="G24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L24" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S24" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W24">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -2100,52 +2250,55 @@
         <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F25" s="1">
         <v>123456</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>27</v>
+      <c r="G25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L25" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S25" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W25">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -2153,52 +2306,55 @@
         <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F26" s="1">
         <v>123456</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>27</v>
+      <c r="G26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L26" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W26">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -2206,52 +2362,55 @@
         <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F27" s="1">
         <v>123456</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>27</v>
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L27" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W27">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="28" ht="14.25">
@@ -2259,52 +2418,55 @@
         <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F28" s="1">
         <v>123456</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>27</v>
+      <c r="G28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L28" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W28">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -2312,52 +2474,55 @@
         <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F29" s="1">
         <v>123456</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>27</v>
+      <c r="G29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L29" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S29" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W29">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="30" ht="14.25">
@@ -2365,52 +2530,55 @@
         <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F30" s="1">
         <v>123456</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>27</v>
+      <c r="G30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L30" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S30" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W30">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -2418,52 +2586,55 @@
         <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F31" s="1">
         <v>123456</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>27</v>
+      <c r="G31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L31" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S31" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W31">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -2471,52 +2642,55 @@
         <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F32" s="1">
         <v>123456</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>27</v>
+      <c r="G32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L32" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S32" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W32">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -2524,52 +2698,55 @@
         <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F33" s="1">
         <v>123456</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>27</v>
+      <c r="G33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L33" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W33">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -2577,52 +2754,55 @@
         <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F34" s="1">
         <v>123456</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>27</v>
+      <c r="G34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L34" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S34" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W34">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -2630,52 +2810,410 @@
         <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>60</v>
+        <v>123456</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F35" s="1">
         <v>123456</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>27</v>
+      <c r="G35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="5">
-        <v>45384</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L35" s="7">
+        <v>45384</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W35">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="36" ht="15">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W36">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="37" ht="15">
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W37">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="38" ht="15">
+      <c r="A38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W38">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="39" ht="15">
+      <c r="A39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W39">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="40" ht="15">
+      <c r="A40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W40">
+        <v>8569742369</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Staging/Return/adhoc_return_test_data.xlsx
+++ b/TestData/Web_POS/Staging/Return/adhoc_return_test_data.xlsx
@@ -134,10 +134,10 @@
     <t>R_2</t>
   </si>
   <si>
-    <t xml:space="preserve">307260624ut0 </t>
-  </si>
-  <si>
-    <t>userone_p2</t>
+    <t>307260624JNG</t>
+  </si>
+  <si>
+    <t>userone_p12</t>
   </si>
   <si>
     <t>Alexa67 : 1</t>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>307260624ut0</t>
+  </si>
+  <si>
+    <t>userone_p2</t>
   </si>
 </sst>
 </file>
@@ -791,8 +794,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A25">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3159,7 +3162,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>86</v>
